--- a/data.xlsx
+++ b/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaveh\AppData\Local\Programs\Python\Python313\KavScripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaveh\AppData\Local\Programs\Python\Python313\KavScripts\ServiceCD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA8B159C-B70A-4535-B05E-711A4BE07B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FADDB1D5-856F-4C6F-A836-0EC87125C8B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5331" yWindow="3111" windowWidth="18515" windowHeight="10740" xr2:uid="{680CFD93-2770-4C4C-996E-F5A58396E051}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="28800" windowHeight="11190" xr2:uid="{680CFD93-2770-4C4C-996E-F5A58396E051}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="17">
   <si>
     <t>Mr Pink</t>
   </si>
@@ -79,16 +79,30 @@
   </si>
   <si>
     <t>arrears</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>a.b@c.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -102,7 +116,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -110,18 +124,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -434,19 +468,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A25A6E4-5F16-47E9-9826-040BA1292992}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="146.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.84375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -459,8 +497,14 @@
       <c r="D1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -473,8 +517,14 @@
       <c r="D2" s="2">
         <v>1064.1099999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -487,8 +537,14 @@
       <c r="D3" s="2">
         <v>1466.3119999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -501,8 +557,14 @@
       <c r="D4" s="2">
         <v>1230.73</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -515,8 +577,14 @@
       <c r="D5" s="2">
         <v>1100.002</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -529,8 +597,14 @@
       <c r="D6" s="2">
         <v>540.95399999999995</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -543,8 +617,14 @@
       <c r="D7" s="2">
         <v>788.66800000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -557,8 +637,14 @@
       <c r="D8" s="2">
         <v>657.91399999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -571,8 +657,14 @@
       <c r="D9" s="2">
         <v>1403.002</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -585,8 +677,14 @@
       <c r="D10" s="2">
         <v>1403.002</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -599,8 +697,14 @@
       <c r="D11" s="2">
         <v>1403.002</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -613,9 +717,20 @@
       <c r="D12" s="2">
         <v>1403.002</v>
       </c>
+      <c r="E12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{94DED925-B275-4849-AEC4-8565A1801441}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{C5C352AD-44B1-4C03-A595-D15C36C200DC}"/>
+    <hyperlink ref="F4:F12" r:id="rId3" display="a.b@c.com" xr:uid="{A0EBBDF7-6586-43D6-85BC-EF7A682477C7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>